--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52251.55139556433</v>
+        <v>10398058.72771729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52251.55139556433</v>
+        <v>10398058.72771729</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5863.800520462435</v>
+        <v>748696.6636226007</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5863.800520462435</v>
+        <v>748696.6636226007</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419123277.076324</v>
+        <v>57994914.58429514</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11835.34014902182</v>
+        <v>1297643.508642255</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22824.5189942912</v>
+        <v>2462567.270949904</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33813.69783956058</v>
+        <v>3627491.033257556</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45216.33417232107</v>
+        <v>4807527.860615712</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56543.0254545765</v>
+        <v>5972451.622923363</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67869.71673683192</v>
+        <v>7137375.385231012</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79196.40801908735</v>
+        <v>8302299.147538658</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90523.09930134278</v>
+        <v>9467222.909846304</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101857.8388247581</v>
+        <v>10630765.81667923</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113184.548355188</v>
+        <v>11795689.57898687</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124511.2578856179</v>
+        <v>12960613.34129453</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135456.2810624925</v>
+        <v>14110424.03855168</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146477.2492898721</v>
+        <v>15275347.80085934</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158483.8630402385</v>
+        <v>16303227.34002982</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170505.2042313792</v>
+        <v>17329558.41540901</v>
       </c>
     </row>
   </sheetData>
